--- a/DataFrames/问题2_蒙特卡洛模拟结果_基于第一问排名.xlsx
+++ b/DataFrames/问题2_蒙特卡洛模拟结果_基于第一问排名.xlsx
@@ -484,22 +484,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.992</v>
       </c>
       <c r="D2" t="n">
-        <v>406080</v>
+        <v>40608</v>
       </c>
       <c r="E2" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F2" t="n">
-        <v>13.2602604131843</v>
+        <v>35.0492401338573</v>
       </c>
       <c r="G2" t="n">
-        <v>13.99475295365687</v>
+        <v>71.10494990711537</v>
       </c>
     </row>
     <row r="3">
@@ -509,22 +509,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>44668.8</v>
+      </c>
+      <c r="E3" t="n">
         <v>30</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>446688</v>
-      </c>
-      <c r="E3" t="n">
-        <v>35</v>
-      </c>
       <c r="F3" t="n">
-        <v>13.63526069042883</v>
+        <v>31.900112043912</v>
       </c>
       <c r="G3" t="n">
-        <v>16.08735095336284</v>
+        <v>45.71391148345248</v>
       </c>
     </row>
     <row r="4">
@@ -534,22 +534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>487296</v>
+        <v>48729.6</v>
       </c>
       <c r="E4" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F4" t="n">
-        <v>16.92060403930171</v>
+        <v>32.86506875109229</v>
       </c>
       <c r="G4" t="n">
-        <v>16.72370689623355</v>
+        <v>59.76216959100891</v>
       </c>
     </row>
     <row r="5">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>0.978</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="F5" t="n">
-        <v>32.48890871263383</v>
+        <v>33.06842084983904</v>
       </c>
       <c r="G5" t="n">
-        <v>58.16533690835871</v>
+        <v>56.23894155567793</v>
       </c>
     </row>
   </sheetData>
@@ -585,6 +585,188 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>供应商数量</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>成功率</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>A类供应商</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>B类供应商</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>C类供应商</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>平均排名分数</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>平均可靠性分数</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>平均供应能力</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>风险调整后供应能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33.06842084983904</v>
+      </c>
+      <c r="G2" t="n">
+        <v>56.23894155567793</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5956.25</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3067.923715631769</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>32.46067967763576</v>
+      </c>
+      <c r="G3" t="n">
+        <v>53.28054147828565</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7403.25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3722.871452284196</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>31.97302269955595</v>
+      </c>
+      <c r="G4" t="n">
+        <v>50.07002443841359</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8943.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4349.079755357415</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>31.76956190212267</v>
+      </c>
+      <c r="G5" t="n">
+        <v>48.02989469134199</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10265.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4898.058269148364</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -601,217 +783,6 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>供应商数量</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>成功率</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>A类供应商</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>B类供应商</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>C类供应商</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>平均排名分数</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>平均可靠性分数</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>平均供应能力</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>风险调整后供应能力</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>32.97903954521013</v>
-      </c>
-      <c r="G2" t="n">
-        <v>64.27261614695399</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6039.272545662099</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3365.83941557604</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.978</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="n">
-        <v>32.48890871263383</v>
-      </c>
-      <c r="G3" t="n">
-        <v>58.16533690835871</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7459.130878995432</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3971.567753057281</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.998</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>32.08216442235718</v>
-      </c>
-      <c r="G4" t="n">
-        <v>54.28195183676252</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8771.926712328766</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4515.496268056022</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>11</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>31.68458733212606</v>
-      </c>
-      <c r="G5" t="n">
-        <v>51.70123124891695</v>
-      </c>
-      <c r="H5" t="n">
-        <v>10026.81477539183</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5037.276788838121</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>13</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>31.5360731166453</v>
-      </c>
-      <c r="G6" t="n">
-        <v>49.67415509157052</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11169.16477539183</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5507.838287156825</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
           <t>供应商名称</t>
         </is>
       </c>
@@ -919,40 +890,40 @@
         <v>68.59990000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8494</v>
+        <v>0.8515</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S140</t>
+          <t>S282</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1379.21</v>
+        <v>705.5833</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9125</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0003</v>
+        <v>0.0018</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6158</v>
+        <v>0.4219</v>
       </c>
       <c r="G4" t="n">
-        <v>30.896</v>
+        <v>30.8285</v>
       </c>
       <c r="H4" t="n">
-        <v>75.0382</v>
+        <v>42.4292</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8485</v>
+        <v>0.5800999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -985,106 +956,40 @@
         <v>55.6956</v>
       </c>
       <c r="I5" t="n">
-        <v>0.636</v>
+        <v>0.5766</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S151</t>
+          <t>S340</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>810.4083000000001</v>
+        <v>714.275</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0004</v>
+        <v>0.0045</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4919</v>
+        <v>0.4312</v>
       </c>
       <c r="G6" t="n">
-        <v>31.1843</v>
+        <v>31.6986</v>
       </c>
       <c r="H6" t="n">
-        <v>50.9244</v>
+        <v>43.3651</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5329</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>S340</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>714.275</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0045</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.4312</v>
-      </c>
-      <c r="G7" t="n">
-        <v>31.6986</v>
-      </c>
-      <c r="H7" t="n">
-        <v>43.3651</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.4776</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>S282</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>705.5833</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0018</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.4219</v>
-      </c>
-      <c r="G8" t="n">
-        <v>30.8285</v>
-      </c>
-      <c r="H8" t="n">
-        <v>42.4292</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.4733</v>
+        <v>0.5332</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1142,470 +1047,6 @@
       </c>
       <c r="D2" t="n">
         <v>71.10494990711537</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>S282</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>30.82853256259671</v>
-      </c>
-      <c r="C3" t="n">
-        <v>705.5833333333334</v>
-      </c>
-      <c r="D3" t="n">
-        <v>42.42915649864337</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>S275</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>30.69836191743126</v>
-      </c>
-      <c r="C4" t="n">
-        <v>660.6375</v>
-      </c>
-      <c r="D4" t="n">
-        <v>40.84466911418899</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>S329</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>30.61875689534651</v>
-      </c>
-      <c r="C5" t="n">
-        <v>652.1583333333333</v>
-      </c>
-      <c r="D5" t="n">
-        <v>40.53553905816266</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>S352</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>29.21310417699758</v>
-      </c>
-      <c r="C6" t="n">
-        <v>370.9625</v>
-      </c>
-      <c r="D6" t="n">
-        <v>30.18018970170172</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>S143</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>29.06860493886632</v>
-      </c>
-      <c r="C7" t="n">
-        <v>344.9458333333333</v>
-      </c>
-      <c r="D7" t="n">
-        <v>28.97407518820453</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>S348</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>23.66239196349175</v>
-      </c>
-      <c r="C8" t="n">
-        <v>476.3969072164949</v>
-      </c>
-      <c r="D8" t="n">
-        <v>31.25394799731684</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>S007</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>29.04070369397861</v>
-      </c>
-      <c r="C9" t="n">
-        <v>28.95</v>
-      </c>
-      <c r="D9" t="n">
-        <v>17.94503699479971</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>S266</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>28.44168483642067</v>
-      </c>
-      <c r="C10" t="n">
-        <v>27.1625</v>
-      </c>
-      <c r="D10" t="n">
-        <v>19.16196322041805</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>S150</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>28.2335321702129</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7.525</v>
-      </c>
-      <c r="D11" t="n">
-        <v>10.49517973272128</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>S123</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>27.93019250912115</v>
-      </c>
-      <c r="C12" t="n">
-        <v>26.87083333333333</v>
-      </c>
-      <c r="D12" t="n">
-        <v>18.08937796455654</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>S114</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>27.19267123431347</v>
-      </c>
-      <c r="C13" t="n">
-        <v>47.73362445414847</v>
-      </c>
-      <c r="D13" t="n">
-        <v>15.74466160824918</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>S307</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>21.88869747723617</v>
-      </c>
-      <c r="C14" t="n">
-        <v>457.2865497076023</v>
-      </c>
-      <c r="D14" t="n">
-        <v>26.27138887114601</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>S291</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>25.94133788565853</v>
-      </c>
-      <c r="C15" t="n">
-        <v>36.45662100456621</v>
-      </c>
-      <c r="D15" t="n">
-        <v>13.61890181707423</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>S395</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1024.905405405405</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.7193273644675443</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>S201</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2928.178571428572</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.2351282911622918</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>S189</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>58.88741721854305</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.022421524663677</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>S273</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>105.3777777777778</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.8823967249720879</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>S292</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>101.7777777777778</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.8280600253118785</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>S078</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>84.68316831683168</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.8437407517016869</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>S005</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>64.59813084112149</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.057204037932089</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>S208</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.5881918323481999</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>S154</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>99.14285714285714</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.7466744913928013</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>S332</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>6.630434782608695</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.7942708333333334</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>S300</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>37.375</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.7766233766233767</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>S227</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>8.466666666666667</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.5825688073394495</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>S381</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>7.178571428571429</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.9757281553398058</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>S030</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>5.785714285714286</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1.285714285714286</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>S226</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>5.882352941176471</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.8032128514056225</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>S254</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>6.192307692307693</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1.052287581699346</v>
       </c>
     </row>
   </sheetData>
@@ -1619,7 +1060,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1652,481 +1093,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S140</t>
+          <t>S108</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30.89596516241778</v>
+        <v>33.21985492759098</v>
       </c>
       <c r="C2" t="n">
-        <v>1379.2100456621</v>
+        <v>1003.958333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>75.03823712470047</v>
+        <v>55.69555452093627</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S108</t>
+          <t>S340</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.21985492759098</v>
+        <v>31.69863069978948</v>
       </c>
       <c r="C3" t="n">
-        <v>1003.958333333333</v>
+        <v>714.275</v>
       </c>
       <c r="D3" t="n">
-        <v>55.69555452093627</v>
+        <v>43.36512112509768</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S340</t>
+          <t>S131</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.69863069978948</v>
+        <v>30.78185050435555</v>
       </c>
       <c r="C4" t="n">
-        <v>714.275</v>
+        <v>572.9666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>43.36512112509768</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>S308</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>30.92612612299036</v>
-      </c>
-      <c r="C5" t="n">
-        <v>570.825</v>
-      </c>
-      <c r="D5" t="n">
-        <v>39.61756285471608</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>S330</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>30.65663935864684</v>
-      </c>
-      <c r="C6" t="n">
-        <v>569.3833333333333</v>
-      </c>
-      <c r="D6" t="n">
-        <v>38.96941364800681</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>S139</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>28.86485472918165</v>
-      </c>
-      <c r="C7" t="n">
-        <v>684.0630630630631</v>
-      </c>
-      <c r="D7" t="n">
-        <v>40.55841435250789</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>S131</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>30.78185050435555</v>
-      </c>
-      <c r="C8" t="n">
-        <v>572.9666666666667</v>
-      </c>
-      <c r="D8" t="n">
         <v>38.08105880432348</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>S031</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>28.11599958278289</v>
-      </c>
-      <c r="C9" t="n">
-        <v>171.6958333333333</v>
-      </c>
-      <c r="D9" t="n">
-        <v>23.14953752568139</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>S040</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>27.83480557895776</v>
-      </c>
-      <c r="C10" t="n">
-        <v>132.9375</v>
-      </c>
-      <c r="D10" t="n">
-        <v>21.44908759164034</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>S364</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>27.84681606298563</v>
-      </c>
-      <c r="C11" t="n">
-        <v>119.8458333333333</v>
-      </c>
-      <c r="D11" t="n">
-        <v>20.98270503114973</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>S367</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>27.78180830724389</v>
-      </c>
-      <c r="C12" t="n">
-        <v>109.7291666666667</v>
-      </c>
-      <c r="D12" t="n">
-        <v>20.32445760809079</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>S055</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>27.88398225270958</v>
-      </c>
-      <c r="C13" t="n">
-        <v>100.1708333333333</v>
-      </c>
-      <c r="D13" t="n">
-        <v>18.5157865782403</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>S346</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>27.65030545081399</v>
-      </c>
-      <c r="C14" t="n">
-        <v>96.83333333333333</v>
-      </c>
-      <c r="D14" t="n">
-        <v>19.78734020546633</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>S338</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>24.90018197239866</v>
-      </c>
-      <c r="C15" t="n">
-        <v>147.593137254902</v>
-      </c>
-      <c r="D15" t="n">
-        <v>18.85890229061565</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6.096774193548387</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.6136363636363636</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>S010</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5.3125</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.2951388888888889</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>S112</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.6507936507936508</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>S077</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>10.66666666666667</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.481203007518797</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>S153</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>13.46153846153846</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.06576475009394964</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>S028</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5.578947368421052</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.726027397260274</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>S142</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>8.066666666666666</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.5084033613445378</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>S147</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.6835443037974683</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>S019</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>9.083333333333334</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.3935018050541516</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>S375</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>8.615384615384615</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.2248995983935743</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>S303</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>6</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1.018867924528302</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>S390</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>5.076923076923077</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.2568093385214008</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>S190</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>16</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>S240</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>S287</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>11</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.07875894988066826</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>S321</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1.1</v>
       </c>
     </row>
   </sheetData>
@@ -2140,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2200,454 +1209,6 @@
       </c>
       <c r="D3" t="n">
         <v>50.9244134554209</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>S268</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>30.0052491757156</v>
-      </c>
-      <c r="C4" t="n">
-        <v>540.775</v>
-      </c>
-      <c r="D4" t="n">
-        <v>37.09207139266889</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>S356</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>29.9136896572067</v>
-      </c>
-      <c r="C5" t="n">
-        <v>542.9458333333333</v>
-      </c>
-      <c r="D5" t="n">
-        <v>37.13089053956018</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>S306</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>29.82555079952171</v>
-      </c>
-      <c r="C6" t="n">
-        <v>525.4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>36.47040748290846</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>S194</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>29.31567790978754</v>
-      </c>
-      <c r="C7" t="n">
-        <v>422.3541666666667</v>
-      </c>
-      <c r="D7" t="n">
-        <v>32.61427066010702</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>S374</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>29.84894701564536</v>
-      </c>
-      <c r="C8" t="n">
-        <v>205.1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>24.37453584194002</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>S247</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>28.29796434670477</v>
-      </c>
-      <c r="C9" t="n">
-        <v>236.2416666666667</v>
-      </c>
-      <c r="D9" t="n">
-        <v>25.63682939786032</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>S284</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>28.16700939812064</v>
-      </c>
-      <c r="C10" t="n">
-        <v>194.1541666666667</v>
-      </c>
-      <c r="D10" t="n">
-        <v>24.04429739056583</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>S365</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>28.02202833490415</v>
-      </c>
-      <c r="C11" t="n">
-        <v>173.4625</v>
-      </c>
-      <c r="D11" t="n">
-        <v>23.24525331089601</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>S080</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>27.88277894915317</v>
-      </c>
-      <c r="C12" t="n">
-        <v>80.15416666666667</v>
-      </c>
-      <c r="D12" t="n">
-        <v>19.75291316342405</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>S218</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>27.88951838318302</v>
-      </c>
-      <c r="C13" t="n">
-        <v>64.5125</v>
-      </c>
-      <c r="D13" t="n">
-        <v>19.44394613906058</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>S294</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>27.59392835424656</v>
-      </c>
-      <c r="C14" t="n">
-        <v>78.50833333333334</v>
-      </c>
-      <c r="D14" t="n">
-        <v>19.87264343816366</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>S244</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>27.73141605378063</v>
-      </c>
-      <c r="C15" t="n">
-        <v>68.35833333333333</v>
-      </c>
-      <c r="D15" t="n">
-        <v>18.86447452781997</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>S314</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>27.52013197443922</v>
-      </c>
-      <c r="C16" t="n">
-        <v>7.106382978723405</v>
-      </c>
-      <c r="D16" t="n">
-        <v>12.28072251797043</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>S086</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>24.92449387460235</v>
-      </c>
-      <c r="C17" t="n">
-        <v>87.13106796116504</v>
-      </c>
-      <c r="D17" t="n">
-        <v>15.5131334190135</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>S129</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>22.85259291817777</v>
-      </c>
-      <c r="C18" t="n">
-        <v>7.942708333333333</v>
-      </c>
-      <c r="D18" t="n">
-        <v>11.90959882500813</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>S003</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>22.0970065316776</v>
-      </c>
-      <c r="C19" t="n">
-        <v>68.78534031413612</v>
-      </c>
-      <c r="D19" t="n">
-        <v>16.57425276715249</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>S037</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>322.8407643312102</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.7489398170722698</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>S126</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>522.4175824175824</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.3593755905809426</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>S210</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>133</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.4535444903621073</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>S074</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>76.32163742690058</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.399871315644341</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>S023</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>12.26315789473684</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.2184570050897401</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>S039</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>8.555555555555555</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.4074074074074074</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>S379</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>6.916666666666667</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1.136986301369863</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>S313</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>10.10526315789474</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.3768400392541708</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>S342</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>5.743589743589744</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1.272727272727273</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>S173</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>23.25</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.2021739130434783</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>S271</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>5.040816326530612</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.7694704049844237</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>S383</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>5.444444444444445</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1.020833333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2661,7 +1222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2697,11 +1258,17 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="A2" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
       <c r="D2" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -2709,10 +1276,14 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
       <c r="D3" t="n">
-        <v>0.978</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -2720,10 +1291,12 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -2738,17 +1311,6 @@
       </c>
       <c r="E5" t="n">
         <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
